--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -392,625 +392,629 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+  <si>
+    <t xml:space="preserve">     Refresh     </t>
+  </si>
+  <si>
+    <t>All Listed</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>A003080</t>
+  </si>
+  <si>
+    <t>A000500</t>
+  </si>
+  <si>
+    <t>A000850</t>
+  </si>
+  <si>
+    <t>A002000</t>
+  </si>
+  <si>
+    <t>A002460</t>
+  </si>
+  <si>
+    <t>A024110</t>
+  </si>
+  <si>
+    <t>A007330</t>
+  </si>
+  <si>
+    <t>A023590</t>
+  </si>
+  <si>
+    <t>A078000</t>
+  </si>
+  <si>
+    <t>A046440</t>
+  </si>
+  <si>
+    <t>A092130</t>
+  </si>
+  <si>
+    <t>A121440</t>
+  </si>
+  <si>
+    <t>A136540</t>
+  </si>
+  <si>
+    <t>A215000</t>
+  </si>
+  <si>
+    <t>A041520</t>
+  </si>
+  <si>
+    <t>A078070</t>
+  </si>
+  <si>
+    <t>A093920</t>
+  </si>
+  <si>
+    <t>A092220</t>
+  </si>
+  <si>
+    <t>A033160</t>
+  </si>
+  <si>
+    <t>A080520</t>
+  </si>
+  <si>
+    <t>A005680</t>
+  </si>
+  <si>
+    <t>A115160</t>
+  </si>
+  <si>
+    <t>A054620</t>
+  </si>
+  <si>
+    <t>R100200</t>
+  </si>
+  <si>
+    <t>S100300</t>
+  </si>
+  <si>
+    <t>CPD-1TD</t>
+  </si>
+  <si>
+    <t>Local/Shares</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Txt</t>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적평균수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적상승종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적하락종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A049520</t>
+  </si>
+  <si>
+    <t>A049520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A079960</t>
+  </si>
+  <si>
+    <t>A079960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S102300</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-07-28 12:53:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A037350</t>
+  </si>
+  <si>
+    <t>A005620</t>
+  </si>
+  <si>
+    <t>A006200</t>
+  </si>
+  <si>
+    <t>A065710</t>
+  </si>
+  <si>
+    <t>A067010</t>
+  </si>
+  <si>
+    <t>A019010</t>
+  </si>
+  <si>
+    <t>A036010</t>
+  </si>
+  <si>
+    <t>A115310</t>
+  </si>
+  <si>
+    <t>A075130</t>
+  </si>
+  <si>
+    <t>A028080</t>
+  </si>
+  <si>
+    <t>A101930</t>
+  </si>
+  <si>
+    <t>평균누적수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>S100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-01 08:50:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성합동지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서호전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이씨에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비코전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인포바인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랜티넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화정공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-01 08:50:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-01 08:50:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>APS홀딩스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Refresh     </t>
-  </si>
-  <si>
-    <t>All Listed</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>A003080</t>
-  </si>
-  <si>
-    <t>A000500</t>
-  </si>
-  <si>
-    <t>A000850</t>
-  </si>
-  <si>
-    <t>A002000</t>
-  </si>
-  <si>
-    <t>A002460</t>
-  </si>
-  <si>
-    <t>A024110</t>
-  </si>
-  <si>
-    <t>A007330</t>
-  </si>
-  <si>
-    <t>A023590</t>
-  </si>
-  <si>
-    <t>A078000</t>
-  </si>
-  <si>
-    <t>A046440</t>
-  </si>
-  <si>
-    <t>A092130</t>
-  </si>
-  <si>
-    <t>A121440</t>
-  </si>
-  <si>
-    <t>A136540</t>
-  </si>
-  <si>
-    <t>A215000</t>
-  </si>
-  <si>
-    <t>A041520</t>
-  </si>
-  <si>
-    <t>A078070</t>
-  </si>
-  <si>
-    <t>A093920</t>
-  </si>
-  <si>
-    <t>A092220</t>
-  </si>
-  <si>
-    <t>A033160</t>
-  </si>
-  <si>
-    <t>A080520</t>
-  </si>
-  <si>
-    <t>A005680</t>
-  </si>
-  <si>
-    <t>A115160</t>
-  </si>
-  <si>
-    <t>A054620</t>
-  </si>
-  <si>
-    <t>R100200</t>
-  </si>
-  <si>
-    <t>S100300</t>
-  </si>
-  <si>
-    <t>CPD-1TD</t>
-  </si>
-  <si>
-    <t>Local/Shares</t>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Base Date</t>
-  </si>
-  <si>
-    <t>결산월</t>
-  </si>
-  <si>
-    <t>수정주가</t>
-  </si>
-  <si>
-    <t>Txt</t>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적평균수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적상승종목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적하락종목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A049520</t>
-  </si>
-  <si>
-    <t>A049520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A079960</t>
-  </si>
-  <si>
-    <t>A079960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 11:27:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S102300</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 12:53:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A037350</t>
-  </si>
-  <si>
-    <t>A005620</t>
-  </si>
-  <si>
-    <t>A006200</t>
-  </si>
-  <si>
-    <t>A065710</t>
-  </si>
-  <si>
-    <t>A067010</t>
-  </si>
-  <si>
-    <t>A019010</t>
-  </si>
-  <si>
-    <t>A036010</t>
-  </si>
-  <si>
-    <t>A115310</t>
-  </si>
-  <si>
-    <t>A075130</t>
-  </si>
-  <si>
-    <t>A028080</t>
-  </si>
-  <si>
-    <t>A101930</t>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-  </si>
-  <si>
-    <t>대성합동지주</t>
-  </si>
-  <si>
-    <t>한국전자홀딩스</t>
-  </si>
-  <si>
-    <t>서호전기</t>
-  </si>
-  <si>
-    <t>이씨에스</t>
-  </si>
-  <si>
-    <t>그랜드백화점</t>
-  </si>
-  <si>
-    <t>아비코전자</t>
-  </si>
-  <si>
-    <t>인포바인</t>
-  </si>
-  <si>
-    <t>플랜티넷</t>
-  </si>
-  <si>
-    <t>휴맥스홀딩스</t>
-  </si>
-  <si>
-    <t>인화정공</t>
-  </si>
-  <si>
-    <t>평균누적수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 13:07:40</t>
-  </si>
-  <si>
-    <t>W100</t>
-  </si>
-  <si>
-    <t>S100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 13:11:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1178,36 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1452,11 +1484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1467,40 +1499,40 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13">
         <f>AVERAGE(F14:F38)</f>
-        <v>2.1702324737681179E-2</v>
+        <v>3.6124344877515703E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <f>COUNTIF(F14:F38,"&gt;=0")</f>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1508,11 +1540,11 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <f>COUNTIF(F14:F38,"&lt;0")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1520,11 +1552,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G6" s="13">
         <f>MAX(F14:F38)</f>
-        <v>0.21705426356589141</v>
+        <v>0.19767441860465107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1532,60 +1564,60 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G7" s="13">
         <f>MIN(F14:F38)</f>
-        <v>-0.11855670103092786</v>
+        <v>-0.13749999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>20170531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1593,27 +1625,27 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -1622,19 +1654,19 @@
         <v>6790</v>
       </c>
       <c r="E14" s="12">
-        <v>6720</v>
+        <v>6680</v>
       </c>
       <c r="F14" s="13">
         <f>E14/D14-1</f>
-        <v>-1.0309278350515427E-2</v>
+        <v>-1.6200294550810068E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -1652,10 +1684,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1664,19 +1696,19 @@
         <v>53200</v>
       </c>
       <c r="E16" s="12">
-        <v>58800</v>
+        <v>59400</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>0.10526315789473695</v>
+        <v>0.11654135338345872</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -1685,19 +1717,19 @@
         <v>27400</v>
       </c>
       <c r="E17" s="12">
-        <v>31450</v>
+        <v>30900</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>0.14781021897810209</v>
+        <v>0.12773722627737216</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -1706,19 +1738,19 @@
         <v>16600</v>
       </c>
       <c r="E18" s="12">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>-7.2289156626506035E-2</v>
+        <v>-8.4337349397590411E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -1727,19 +1759,19 @@
         <v>12900</v>
       </c>
       <c r="E19" s="12">
-        <v>15700</v>
+        <v>15450</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>0.21705426356589141</v>
+        <v>0.19767441860465107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -1748,19 +1780,19 @@
         <v>7750</v>
       </c>
       <c r="E20" s="12">
-        <v>8050</v>
+        <v>7990</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>3.8709677419354938E-2</v>
+        <v>3.0967741935483906E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -1769,19 +1801,19 @@
         <v>21450</v>
       </c>
       <c r="E21" s="12">
-        <v>22600</v>
+        <v>22250</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>5.3613053613053685E-2</v>
+        <v>3.7296037296037365E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -1790,19 +1822,19 @@
         <v>12100</v>
       </c>
       <c r="E22" s="12">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.2644628099173278E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1811,19 +1843,19 @@
         <v>7530</v>
       </c>
       <c r="E23" s="12">
-        <v>7510</v>
+        <v>7420</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>-2.6560424966799445E-3</v>
+        <v>-1.4608233731739695E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -1832,19 +1864,19 @@
         <v>13300</v>
       </c>
       <c r="E24" s="12">
-        <v>13450</v>
+        <v>13350</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>1.1278195488721776E-2</v>
+        <v>3.759398496240518E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -1853,19 +1885,19 @@
         <v>5670</v>
       </c>
       <c r="E25" s="12">
-        <v>5850</v>
+        <v>5620</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>3.1746031746031855E-2</v>
+        <v>-8.81834215167554E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -1874,19 +1906,19 @@
         <v>12200</v>
       </c>
       <c r="E26" s="12">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>6.5573770491803351E-2</v>
+        <v>4.0983606557376984E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -1895,19 +1927,19 @@
         <v>58200</v>
       </c>
       <c r="E27" s="12">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>-0.11855670103092786</v>
+        <v>-0.12714776632302405</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -1916,19 +1948,19 @@
         <v>9400</v>
       </c>
       <c r="E28" s="12">
-        <v>9460</v>
+        <v>9320</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>6.382978723404209E-3</v>
+        <v>-8.5106382978723527E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -1937,19 +1969,19 @@
         <v>6470</v>
       </c>
       <c r="E29" s="12">
-        <v>6470</v>
+        <v>6420</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.7279752704790816E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -1958,19 +1990,19 @@
         <v>11500</v>
       </c>
       <c r="E30" s="12">
-        <v>12350</v>
+        <v>12150</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>7.3913043478260887E-2</v>
+        <v>5.6521739130434678E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -1979,19 +2011,19 @@
         <v>1120</v>
       </c>
       <c r="E31" s="11">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.11517857142857146</v>
+        <v>-0.13749999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2000,19 +2032,19 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>0.18556701030927836</v>
+        <v>0.15463917525773185</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2021,19 +2053,19 @@
         <v>8840</v>
       </c>
       <c r="E33" s="12">
-        <v>7950</v>
+        <v>7680</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.10067873303167418</v>
+        <v>-0.13122171945701355</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2042,19 +2074,19 @@
         <v>14100</v>
       </c>
       <c r="E34" s="12">
-        <v>14000</v>
+        <v>13750</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>-7.0921985815602939E-3</v>
+        <v>-2.4822695035460973E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2063,19 +2095,19 @@
         <v>11400</v>
       </c>
       <c r="E35" s="12">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>-1.7543859649122862E-2</v>
+        <v>-5.2631578947368474E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2084,40 +2116,40 @@
         <v>12800</v>
       </c>
       <c r="E36" s="12">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>-9.375E-2</v>
+        <v>-0.1171875</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
       </c>
       <c r="D37" s="12">
-        <v>13200</v>
+        <v>6604</v>
       </c>
       <c r="E37" s="12">
-        <v>14950</v>
+        <v>7020</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>0.13257575757575757</v>
+        <v>6.2992125984252079E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2126,11 +2158,11 @@
         <v>13700</v>
       </c>
       <c r="E38" s="12">
-        <v>13300</v>
+        <v>13150</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
-        <v>-2.9197080291970767E-2</v>
+        <v>-4.014598540145986E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2162,26 +2194,26 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2202,68 +2234,68 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>20170531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7">
         <v>20170531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2273,33 +2305,33 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -2319,10 +2351,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -2342,10 +2374,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -2365,10 +2397,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -2388,10 +2420,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -2411,10 +2443,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -2434,10 +2466,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -2457,10 +2489,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -2480,10 +2512,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -2503,10 +2535,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -2526,10 +2558,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -2549,10 +2581,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -2572,10 +2604,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2595,10 +2627,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -2618,10 +2650,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -2641,10 +2673,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2664,10 +2696,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2687,10 +2719,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2710,10 +2742,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2733,10 +2765,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2756,10 +2788,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2779,10 +2811,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2802,10 +2834,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2825,10 +2857,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2848,10 +2880,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2883,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2895,74 +2927,74 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="H1" s="13">
         <f>AVERAGE(H14:H38)</f>
-        <v>1.143456055410927E-2</v>
+        <v>-4.6878953371656531E-3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G2" s="14" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <f>COUNTIF(H14:H38,"&gt;=0")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <f>COUNTIF(H14:H38,"&lt;0")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13">
         <f>MAX(H14:H38)</f>
         <v>0.22908366533864544</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -2970,11 +3002,11 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H5" s="13">
         <f>MIN(H14:H38)</f>
-        <v>-0.11517857142857146</v>
+        <v>-0.13749999999999996</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2985,11 +3017,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="H6" s="13">
         <f>O14/N14-1</f>
-        <v>4.831513176666169E-2</v>
+        <v>3.0041889103457509E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3006,124 +3038,124 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>20170531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7">
         <v>20170531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H10" s="13"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>20170531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7">
         <v>20170531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3132,7 +3164,7 @@
       <c r="G12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3142,54 +3174,54 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -3198,44 +3230,44 @@
         <v>6260</v>
       </c>
       <c r="E14" s="12">
-        <v>6860</v>
+        <v>6700</v>
       </c>
       <c r="F14" s="12">
         <v>96842200000</v>
       </c>
       <c r="G14" s="12">
-        <v>106124200000</v>
+        <v>103649000000</v>
       </c>
       <c r="H14" s="13">
         <f>E14/D14-1</f>
-        <v>9.5846645367412053E-2</v>
+        <v>7.0287539936102261E-2</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="16">
         <v>2418.29</v>
       </c>
       <c r="O14" s="16">
-        <v>2535.13</v>
+        <v>2490.94</v>
       </c>
       <c r="P14" s="15">
         <v>1519224318667750</v>
       </c>
       <c r="Q14" s="15">
-        <v>1587487990380030</v>
+        <v>1560654851501470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -3259,10 +3291,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -3271,25 +3303,25 @@
         <v>857</v>
       </c>
       <c r="E16" s="11">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="F16" s="12">
         <v>40110287552</v>
       </c>
       <c r="G16" s="12">
-        <v>37395705664</v>
+        <v>36459642944</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="0"/>
-        <v>-6.7677946324387395E-2</v>
+        <v>-9.1015169194865853E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -3298,25 +3330,25 @@
         <v>12100</v>
       </c>
       <c r="E17" s="12">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="F17" s="12">
         <v>62315000000</v>
       </c>
       <c r="G17" s="12">
-        <v>67980000000</v>
+        <v>65920000000</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>9.0909090909090828E-2</v>
+        <v>5.7851239669421517E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3325,25 +3357,25 @@
         <v>6470</v>
       </c>
       <c r="E18" s="12">
-        <v>6470</v>
+        <v>6420</v>
       </c>
       <c r="F18" s="12">
         <v>104012011150</v>
       </c>
       <c r="G18" s="12">
-        <v>104012011150</v>
+        <v>103208208900</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.7279752704790816E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3352,25 +3384,25 @@
         <v>1120</v>
       </c>
       <c r="E19" s="11">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="F19" s="12">
         <v>100090514720</v>
       </c>
       <c r="G19" s="12">
-        <v>90143613534</v>
+        <v>87869556684</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="0"/>
-        <v>-0.11517857142857146</v>
+        <v>-0.13749999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -3379,25 +3411,25 @@
         <v>5670</v>
       </c>
       <c r="E20" s="12">
-        <v>5850</v>
+        <v>5620</v>
       </c>
       <c r="F20" s="12">
         <v>242884758060</v>
       </c>
       <c r="G20" s="12">
-        <v>250595385300</v>
+        <v>240742917160</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v>3.1746031746031855E-2</v>
+        <v>-8.81834215167554E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -3406,25 +3438,25 @@
         <v>9400</v>
       </c>
       <c r="E21" s="12">
-        <v>9460</v>
+        <v>9320</v>
       </c>
       <c r="F21" s="12">
         <v>114574062000</v>
       </c>
       <c r="G21" s="12">
-        <v>115305385800</v>
+        <v>113598963600</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="0"/>
-        <v>6.382978723404209E-3</v>
+        <v>-8.5106382978723527E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3433,25 +3465,25 @@
         <v>6790</v>
       </c>
       <c r="E22" s="12">
-        <v>6720</v>
+        <v>6680</v>
       </c>
       <c r="F22" s="12">
         <v>135935800000</v>
       </c>
       <c r="G22" s="12">
-        <v>134534400000</v>
+        <v>133733600000</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="0"/>
-        <v>-1.0309278350515427E-2</v>
+        <v>-1.6200294550810068E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -3460,25 +3492,25 @@
         <v>12800</v>
       </c>
       <c r="E23" s="12">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="F23" s="12">
         <v>152715878400</v>
       </c>
       <c r="G23" s="12">
-        <v>138398764800</v>
+        <v>134819486400</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v>-9.375E-2</v>
+        <v>-0.1171875</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -3487,25 +3519,25 @@
         <v>13700</v>
       </c>
       <c r="E24" s="12">
-        <v>13300</v>
+        <v>13150</v>
       </c>
       <c r="F24" s="12">
         <v>107682000000</v>
       </c>
       <c r="G24" s="12">
-        <v>104538000000</v>
+        <v>103359000000</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="0"/>
-        <v>-2.9197080291970767E-2</v>
+        <v>-4.014598540145986E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
@@ -3514,25 +3546,25 @@
         <v>5380</v>
       </c>
       <c r="E25" s="12">
-        <v>5440</v>
+        <v>5570</v>
       </c>
       <c r="F25" s="12">
         <v>40350000000</v>
       </c>
       <c r="G25" s="12">
-        <v>40800000000</v>
+        <v>41775000000</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="0"/>
-        <v>1.1152416356877248E-2</v>
+        <v>3.5315985130111471E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -3541,25 +3573,25 @@
         <v>14450</v>
       </c>
       <c r="E26" s="12">
-        <v>13600</v>
+        <v>13350</v>
       </c>
       <c r="F26" s="12">
         <v>69649000000</v>
       </c>
       <c r="G26" s="12">
-        <v>65552000000</v>
+        <v>64347000000</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="0"/>
-        <v>-5.8823529411764719E-2</v>
+        <v>-7.6124567474048388E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -3568,25 +3600,25 @@
         <v>7480</v>
       </c>
       <c r="E27" s="12">
-        <v>8600</v>
+        <v>8390</v>
       </c>
       <c r="F27" s="12">
         <v>99431146320</v>
       </c>
       <c r="G27" s="12">
-        <v>114319232400</v>
+        <v>111527716260</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="0"/>
-        <v>0.14973262032085555</v>
+        <v>0.12165775401069512</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -3595,25 +3627,25 @@
         <v>28000</v>
       </c>
       <c r="E28" s="12">
-        <v>27350</v>
+        <v>27200</v>
       </c>
       <c r="F28" s="12">
         <v>87182816000</v>
       </c>
       <c r="G28" s="12">
-        <v>85158929200</v>
+        <v>84691878400</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>-2.3214285714285743E-2</v>
+        <v>-2.8571428571428581E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -3622,25 +3654,25 @@
         <v>12900</v>
       </c>
       <c r="E29" s="12">
-        <v>15700</v>
+        <v>15450</v>
       </c>
       <c r="F29" s="12">
         <v>7223726713500</v>
       </c>
       <c r="G29" s="12">
-        <v>8791667395500</v>
+        <v>8651672691750</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="0"/>
-        <v>0.21705426356589141</v>
+        <v>0.19767441860465107</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -3649,25 +3681,25 @@
         <v>13300</v>
       </c>
       <c r="E30" s="12">
-        <v>13450</v>
+        <v>13350</v>
       </c>
       <c r="F30" s="12">
         <v>160179880000</v>
       </c>
       <c r="G30" s="12">
-        <v>161986420000</v>
+        <v>160782060000</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="0"/>
-        <v>1.1278195488721776E-2</v>
+        <v>3.759398496240518E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -3676,25 +3708,25 @@
         <v>8840</v>
       </c>
       <c r="E31" s="12">
-        <v>7950</v>
+        <v>7680</v>
       </c>
       <c r="F31" s="12">
         <v>103840023560</v>
       </c>
       <c r="G31" s="12">
-        <v>93385541550</v>
+        <v>90213957120</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.10067873303167418</v>
+        <v>-0.13122171945701355</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -3703,25 +3735,25 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F32" s="12">
         <v>211534583300</v>
       </c>
       <c r="G32" s="12">
-        <v>250788423500</v>
+        <v>244246116800</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>0.18556701030927836</v>
+        <v>0.15463917525773185</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -3730,25 +3762,25 @@
         <v>6460</v>
       </c>
       <c r="E33" s="12">
-        <v>5900</v>
+        <v>5760</v>
       </c>
       <c r="F33" s="12">
         <v>57881600000</v>
       </c>
       <c r="G33" s="12">
-        <v>52864000000</v>
+        <v>51609600000</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>-8.6687306501547989E-2</v>
+        <v>-0.10835913312693501</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -3757,25 +3789,25 @@
         <v>6040</v>
       </c>
       <c r="E34" s="12">
-        <v>5680</v>
+        <v>5660</v>
       </c>
       <c r="F34" s="12">
         <v>75968136240</v>
       </c>
       <c r="G34" s="12">
-        <v>71440234080</v>
+        <v>71188683960</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>-5.9602649006622488E-2</v>
+        <v>-6.29139072847682E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -3784,25 +3816,25 @@
         <v>16600</v>
       </c>
       <c r="E35" s="12">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F35" s="12">
         <v>206683280000</v>
       </c>
       <c r="G35" s="12">
-        <v>191742320000</v>
+        <v>189252160000</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>-7.2289156626506035E-2</v>
+        <v>-8.4337349397590411E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -3826,10 +3858,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -3838,25 +3870,25 @@
         <v>11400</v>
       </c>
       <c r="E37" s="12">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F37" s="12">
         <v>272594497200</v>
       </c>
       <c r="G37" s="12">
-        <v>267812137600</v>
+        <v>258247418400</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
-        <v>-1.7543859649122862E-2</v>
+        <v>-5.2631578947368474E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -3865,17 +3897,17 @@
         <v>12100</v>
       </c>
       <c r="E38" s="12">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="F38" s="12">
         <v>117402742600</v>
       </c>
       <c r="G38" s="12">
-        <v>117402742600</v>
+        <v>116432472000</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.2644628099173278E-3</v>
       </c>
     </row>
   </sheetData>

--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
   <si>
     <t xml:space="preserve">     Refresh     </t>
   </si>
@@ -528,25 +528,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S102300</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-07-28 12:53:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S102300</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 12:53:21</t>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A037350</t>
+  </si>
+  <si>
+    <t>A005620</t>
+  </si>
+  <si>
+    <t>A006200</t>
+  </si>
+  <si>
+    <t>A065710</t>
+  </si>
+  <si>
+    <t>A067010</t>
+  </si>
+  <si>
+    <t>A019010</t>
+  </si>
+  <si>
+    <t>A036010</t>
+  </si>
+  <si>
+    <t>A115310</t>
+  </si>
+  <si>
+    <t>A075130</t>
+  </si>
+  <si>
+    <t>A028080</t>
+  </si>
+  <si>
+    <t>A101930</t>
+  </si>
+  <si>
+    <t>평균누적수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>S100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,27 +742,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이씨에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비코전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랜티넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-04 07:59:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-04 07:59:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성합동지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서호전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인포바인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화정공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-08-04 07:59:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,435 +1022,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A037350</t>
-  </si>
-  <si>
-    <t>A005620</t>
-  </si>
-  <si>
-    <t>A006200</t>
-  </si>
-  <si>
-    <t>A065710</t>
-  </si>
-  <si>
-    <t>A067010</t>
-  </si>
-  <si>
-    <t>A019010</t>
-  </si>
-  <si>
-    <t>A036010</t>
-  </si>
-  <si>
-    <t>A115310</t>
-  </si>
-  <si>
-    <t>A075130</t>
-  </si>
-  <si>
-    <t>A028080</t>
-  </si>
-  <si>
-    <t>A101930</t>
-  </si>
-  <si>
-    <t>평균누적수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W100</t>
-  </si>
-  <si>
-    <t>S100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-01 08:50:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대성합동지주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전자홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서호전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이씨에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드백화점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아비코전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인포바인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랜티넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인화정공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-01 08:50:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-01 08:50:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,11 +1492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1502,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="13">
         <f>AVERAGE(F14:F38)</f>
-        <v>3.6124344877515703E-3</v>
+        <v>7.7942560749472806E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1552,11 +1560,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="13">
         <f>MAX(F14:F38)</f>
-        <v>0.19767441860465107</v>
+        <v>0.20155038759689914</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1564,17 +1572,17 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13">
         <f>MIN(F14:F38)</f>
-        <v>-0.13749999999999996</v>
+        <v>-0.14196428571428577</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -1589,7 +1597,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1602,7 +1610,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -1617,7 +1625,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1625,19 +1633,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1645,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -1654,11 +1662,11 @@
         <v>6790</v>
       </c>
       <c r="E14" s="12">
-        <v>6680</v>
+        <v>6600</v>
       </c>
       <c r="F14" s="13">
         <f>E14/D14-1</f>
-        <v>-1.6200294550810068E-2</v>
+        <v>-2.7982326951399128E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1666,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -1675,11 +1683,11 @@
         <v>24800</v>
       </c>
       <c r="E15" s="12">
-        <v>25800</v>
+        <v>26050</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ref="F15:F38" si="0">E15/D15-1</f>
-        <v>4.0322580645161255E-2</v>
+        <v>5.0403225806451513E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1687,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1696,11 +1704,11 @@
         <v>53200</v>
       </c>
       <c r="E16" s="12">
-        <v>59400</v>
+        <v>60300</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>0.11654135338345872</v>
+        <v>0.13345864661654128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1708,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -1717,11 +1725,11 @@
         <v>27400</v>
       </c>
       <c r="E17" s="12">
-        <v>30900</v>
+        <v>30650</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>0.12773722627737216</v>
+        <v>0.11861313868613133</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1729,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -1738,11 +1746,11 @@
         <v>16600</v>
       </c>
       <c r="E18" s="12">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>-8.4337349397590411E-2</v>
+        <v>-9.6385542168674676E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1750,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -1759,11 +1767,11 @@
         <v>12900</v>
       </c>
       <c r="E19" s="12">
-        <v>15450</v>
+        <v>15500</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>0.19767441860465107</v>
+        <v>0.20155038759689914</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1771,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -1780,11 +1788,11 @@
         <v>7750</v>
       </c>
       <c r="E20" s="12">
-        <v>7990</v>
+        <v>8050</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>3.0967741935483906E-2</v>
+        <v>3.8709677419354938E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1792,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -1801,11 +1809,11 @@
         <v>21450</v>
       </c>
       <c r="E21" s="12">
-        <v>22250</v>
+        <v>21100</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>3.7296037296037365E-2</v>
+        <v>-1.631701631701632E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1813,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -1834,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1843,11 +1851,11 @@
         <v>7530</v>
       </c>
       <c r="E23" s="12">
-        <v>7420</v>
+        <v>7680</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>-1.4608233731739695E-2</v>
+        <v>1.9920318725099584E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1855,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -1864,11 +1872,11 @@
         <v>13300</v>
       </c>
       <c r="E24" s="12">
-        <v>13350</v>
+        <v>13250</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>3.759398496240518E-3</v>
+        <v>-3.7593984962406291E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1876,7 +1884,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -1885,11 +1893,11 @@
         <v>5670</v>
       </c>
       <c r="E25" s="12">
-        <v>5620</v>
+        <v>5630</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>-8.81834215167554E-3</v>
+        <v>-7.0546737213403876E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1897,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -1906,11 +1914,11 @@
         <v>12200</v>
       </c>
       <c r="E26" s="12">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>4.0983606557376984E-2</v>
+        <v>2.4590163934426146E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1918,7 +1926,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -1927,11 +1935,11 @@
         <v>58200</v>
       </c>
       <c r="E27" s="12">
-        <v>50800</v>
+        <v>51600</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>-0.12714776632302405</v>
+        <v>-0.11340206185567014</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1939,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -1948,11 +1956,11 @@
         <v>9400</v>
       </c>
       <c r="E28" s="12">
-        <v>9320</v>
+        <v>9340</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>-8.5106382978723527E-3</v>
+        <v>-6.382978723404209E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1960,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -1969,11 +1977,11 @@
         <v>6470</v>
       </c>
       <c r="E29" s="12">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>-7.7279752704790816E-3</v>
+        <v>1.5455950540959051E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1981,7 +1989,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -1990,11 +1998,11 @@
         <v>11500</v>
       </c>
       <c r="E30" s="12">
-        <v>12150</v>
+        <v>12200</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>5.6521739130434678E-2</v>
+        <v>6.0869565217391397E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -2002,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2011,11 +2019,11 @@
         <v>1120</v>
       </c>
       <c r="E31" s="11">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.13749999999999996</v>
+        <v>-0.14196428571428577</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2023,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2032,11 +2040,11 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>11200</v>
+        <v>10450</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>0.15463917525773185</v>
+        <v>7.7319587628865927E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2044,7 +2052,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2053,11 +2061,11 @@
         <v>8840</v>
       </c>
       <c r="E33" s="12">
-        <v>7680</v>
+        <v>7630</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.13122171945701355</v>
+        <v>-0.1368778280542986</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -2065,7 +2073,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2074,11 +2082,11 @@
         <v>14100</v>
       </c>
       <c r="E34" s="12">
-        <v>13750</v>
+        <v>13450</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>-2.4822695035460973E-2</v>
+        <v>-4.6099290780141855E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2086,7 +2094,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2095,11 +2103,11 @@
         <v>11400</v>
       </c>
       <c r="E35" s="12">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>-5.2631578947368474E-2</v>
+        <v>-3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2107,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2116,11 +2124,11 @@
         <v>12800</v>
       </c>
       <c r="E36" s="12">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1171875</v>
+        <v>-0.1328125</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2128,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2137,11 +2145,11 @@
         <v>6604</v>
       </c>
       <c r="E37" s="12">
-        <v>7020</v>
+        <v>7370</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>6.2992125984252079E-2</v>
+        <v>0.11599030890369466</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2149,7 +2157,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2158,11 +2166,11 @@
         <v>13700</v>
       </c>
       <c r="E38" s="12">
-        <v>13150</v>
+        <v>13000</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
-        <v>-4.014598540145986E-2</v>
+        <v>-5.1094890510948954E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2197,12 +2205,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2234,7 +2242,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2246,10 +2254,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -2274,7 +2282,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -2286,16 +2294,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2308,22 +2316,22 @@
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2331,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -2354,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -2377,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -2400,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -2423,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -2446,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -2469,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -2492,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -2515,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -2538,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -2561,7 +2569,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -2584,7 +2592,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -2607,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2630,7 +2638,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -2653,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -2676,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2699,7 +2707,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2722,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2745,7 +2753,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2768,7 +2776,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2791,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2814,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2837,7 +2845,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2860,7 +2868,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2883,7 +2891,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2915,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2930,20 +2938,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="13">
         <f>AVERAGE(H14:H38)</f>
-        <v>-4.6878953371656531E-3</v>
+        <v>-1.0068983795090811E-2</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -2957,7 +2965,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -2967,7 +2975,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -2981,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="13">
         <f>MAX(H14:H38)</f>
@@ -3002,11 +3010,11 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="13">
         <f>MIN(H14:H38)</f>
-        <v>-0.13749999999999996</v>
+        <v>-0.14196428571428577</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3017,11 +3025,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H6" s="13">
         <f>O14/N14-1</f>
-        <v>3.0041889103457509E-2</v>
+        <v>2.2983182331316687E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3038,7 +3046,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -3050,35 +3058,35 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -3096,7 +3104,7 @@
       <c r="H10" s="13"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
@@ -3115,7 +3123,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -3127,14 +3135,14 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -3146,16 +3154,16 @@
         <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3164,7 +3172,7 @@
       <c r="G12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3174,54 +3182,54 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -3230,44 +3238,44 @@
         <v>6260</v>
       </c>
       <c r="E14" s="12">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F14" s="12">
         <v>96842200000</v>
       </c>
       <c r="G14" s="12">
-        <v>103649000000</v>
+        <v>99008000000</v>
       </c>
       <c r="H14" s="13">
         <f>E14/D14-1</f>
-        <v>7.0287539936102261E-2</v>
+        <v>2.2364217252396124E-2</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="16">
         <v>2418.29</v>
       </c>
       <c r="O14" s="16">
-        <v>2490.94</v>
+        <v>2473.87</v>
       </c>
       <c r="P14" s="15">
         <v>1519224318667750</v>
       </c>
       <c r="Q14" s="15">
-        <v>1560654851501470</v>
+        <v>1547313042422460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -3291,10 +3299,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -3303,25 +3311,25 @@
         <v>857</v>
       </c>
       <c r="E16" s="11">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F16" s="12">
         <v>40110287552</v>
       </c>
       <c r="G16" s="12">
-        <v>36459642944</v>
+        <v>35898005312</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="0"/>
-        <v>-9.1015169194865853E-2</v>
+        <v>-0.10501750291715284</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -3330,17 +3338,17 @@
         <v>12100</v>
       </c>
       <c r="E17" s="12">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F17" s="12">
         <v>62315000000</v>
       </c>
       <c r="G17" s="12">
-        <v>65920000000</v>
+        <v>66435000000</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>5.7851239669421517E-2</v>
+        <v>6.6115702479338845E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -3348,7 +3356,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3357,17 +3365,17 @@
         <v>6470</v>
       </c>
       <c r="E18" s="12">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="F18" s="12">
         <v>104012011150</v>
       </c>
       <c r="G18" s="12">
-        <v>103208208900</v>
+        <v>104172771600</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
-        <v>-7.7279752704790816E-3</v>
+        <v>1.5455950540959051E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -3375,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3384,17 +3392,17 @@
         <v>1120</v>
       </c>
       <c r="E19" s="11">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F19" s="12">
         <v>100090514720</v>
       </c>
       <c r="G19" s="12">
-        <v>87869556684</v>
+        <v>87414745314</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="0"/>
-        <v>-0.13749999999999996</v>
+        <v>-0.14196428571428577</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -3402,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -3411,17 +3419,17 @@
         <v>5670</v>
       </c>
       <c r="E20" s="12">
-        <v>5620</v>
+        <v>5630</v>
       </c>
       <c r="F20" s="12">
         <v>242884758060</v>
       </c>
       <c r="G20" s="12">
-        <v>240742917160</v>
+        <v>241171285340</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v>-8.81834215167554E-3</v>
+        <v>-7.0546737213403876E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -3429,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -3438,17 +3446,17 @@
         <v>9400</v>
       </c>
       <c r="E21" s="12">
-        <v>9320</v>
+        <v>9340</v>
       </c>
       <c r="F21" s="12">
         <v>114574062000</v>
       </c>
       <c r="G21" s="12">
-        <v>113598963600</v>
+        <v>113842738200</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="0"/>
-        <v>-8.5106382978723527E-3</v>
+        <v>-6.382978723404209E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -3456,7 +3464,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3465,17 +3473,17 @@
         <v>6790</v>
       </c>
       <c r="E22" s="12">
-        <v>6680</v>
+        <v>6600</v>
       </c>
       <c r="F22" s="12">
         <v>135935800000</v>
       </c>
       <c r="G22" s="12">
-        <v>133733600000</v>
+        <v>132132000000</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="0"/>
-        <v>-1.6200294550810068E-2</v>
+        <v>-2.7982326951399128E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -3483,7 +3491,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -3492,17 +3500,17 @@
         <v>12800</v>
       </c>
       <c r="E23" s="12">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="F23" s="12">
         <v>152715878400</v>
       </c>
       <c r="G23" s="12">
-        <v>134819486400</v>
+        <v>132433300800</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1171875</v>
+        <v>-0.1328125</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -3510,7 +3518,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -3519,25 +3527,25 @@
         <v>13700</v>
       </c>
       <c r="E24" s="12">
-        <v>13150</v>
+        <v>13000</v>
       </c>
       <c r="F24" s="12">
         <v>107682000000</v>
       </c>
       <c r="G24" s="12">
-        <v>103359000000</v>
+        <v>102180000000</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="0"/>
-        <v>-4.014598540145986E-2</v>
+        <v>-5.1094890510948954E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
@@ -3546,25 +3554,25 @@
         <v>5380</v>
       </c>
       <c r="E25" s="12">
-        <v>5570</v>
+        <v>5650</v>
       </c>
       <c r="F25" s="12">
         <v>40350000000</v>
       </c>
       <c r="G25" s="12">
-        <v>41775000000</v>
+        <v>42375000000</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="0"/>
-        <v>3.5315985130111471E-2</v>
+        <v>5.018587360594795E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -3573,25 +3581,25 @@
         <v>14450</v>
       </c>
       <c r="E26" s="12">
-        <v>13350</v>
+        <v>13150</v>
       </c>
       <c r="F26" s="12">
         <v>69649000000</v>
       </c>
       <c r="G26" s="12">
-        <v>64347000000</v>
+        <v>63383000000</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="0"/>
-        <v>-7.6124567474048388E-2</v>
+        <v>-8.9965397923875479E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -3600,25 +3608,25 @@
         <v>7480</v>
       </c>
       <c r="E27" s="12">
-        <v>8390</v>
+        <v>8350</v>
       </c>
       <c r="F27" s="12">
         <v>99431146320</v>
       </c>
       <c r="G27" s="12">
-        <v>111527716260</v>
+        <v>110995998900</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="0"/>
-        <v>0.12165775401069512</v>
+        <v>0.1163101604278074</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -3627,17 +3635,17 @@
         <v>28000</v>
       </c>
       <c r="E28" s="12">
-        <v>27200</v>
+        <v>27350</v>
       </c>
       <c r="F28" s="12">
         <v>87182816000</v>
       </c>
       <c r="G28" s="12">
-        <v>84691878400</v>
+        <v>85158929200</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>-2.8571428571428581E-2</v>
+        <v>-2.3214285714285743E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -3645,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -3654,17 +3662,17 @@
         <v>12900</v>
       </c>
       <c r="E29" s="12">
-        <v>15450</v>
+        <v>15500</v>
       </c>
       <c r="F29" s="12">
         <v>7223726713500</v>
       </c>
       <c r="G29" s="12">
-        <v>8651672691750</v>
+        <v>8679671632500</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="0"/>
-        <v>0.19767441860465107</v>
+        <v>0.20155038759689914</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -3672,7 +3680,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -3681,17 +3689,17 @@
         <v>13300</v>
       </c>
       <c r="E30" s="12">
-        <v>13350</v>
+        <v>13250</v>
       </c>
       <c r="F30" s="12">
         <v>160179880000</v>
       </c>
       <c r="G30" s="12">
-        <v>160782060000</v>
+        <v>159577700000</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="0"/>
-        <v>3.759398496240518E-3</v>
+        <v>-3.7593984962406291E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3699,7 +3707,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -3708,17 +3716,17 @@
         <v>8840</v>
       </c>
       <c r="E31" s="12">
-        <v>7680</v>
+        <v>7630</v>
       </c>
       <c r="F31" s="12">
         <v>103840023560</v>
       </c>
       <c r="G31" s="12">
-        <v>90213957120</v>
+        <v>89626626670</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.13122171945701355</v>
+        <v>-0.1368778280542986</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -3726,7 +3734,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -3735,25 +3743,25 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>11200</v>
+        <v>10450</v>
       </c>
       <c r="F32" s="12">
         <v>211534583300</v>
       </c>
       <c r="G32" s="12">
-        <v>244246116800</v>
+        <v>227890350050</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>0.15463917525773185</v>
+        <v>7.7319587628865927E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -3762,25 +3770,25 @@
         <v>6460</v>
       </c>
       <c r="E33" s="12">
-        <v>5760</v>
+        <v>6000</v>
       </c>
       <c r="F33" s="12">
         <v>57881600000</v>
       </c>
       <c r="G33" s="12">
-        <v>51609600000</v>
+        <v>53760000000</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.10835913312693501</v>
+        <v>-7.1207430340557321E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -3789,17 +3797,17 @@
         <v>6040</v>
       </c>
       <c r="E34" s="12">
-        <v>5660</v>
+        <v>5610</v>
       </c>
       <c r="F34" s="12">
         <v>75968136240</v>
       </c>
       <c r="G34" s="12">
-        <v>71188683960</v>
+        <v>70559808660</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>-6.29139072847682E-2</v>
+        <v>-7.1192052980132425E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -3807,7 +3815,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -3816,25 +3824,25 @@
         <v>16600</v>
       </c>
       <c r="E35" s="12">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="12">
         <v>206683280000</v>
       </c>
       <c r="G35" s="12">
-        <v>189252160000</v>
+        <v>186762000000</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>-8.4337349397590411E-2</v>
+        <v>-9.6385542168674676E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -3861,7 +3869,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -3870,17 +3878,17 @@
         <v>11400</v>
       </c>
       <c r="E37" s="12">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F37" s="12">
         <v>272594497200</v>
       </c>
       <c r="G37" s="12">
-        <v>258247418400</v>
+        <v>263029778000</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
-        <v>-5.2631578947368474E-2</v>
+        <v>-3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3888,7 +3896,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
